--- a/rhla_analysis/rhla1_6_exp_result/k2.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k2.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02563643377815056</v>
+        <v>0.02468298655249902</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2513319048888342</v>
+        <v>0.250951565187429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1376811594202899</v>
+        <v>0.08893414799728445</v>
       </c>
       <c r="D2" t="n">
-        <v>9.803699963254621</v>
+        <v>10.16698545184847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.007812386063956822</v>
+        <v>0.006811768922209198</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2097048870214807</v>
+        <v>0.2124607845354239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1705029838022165</v>
+        <v>0.1171079429735234</v>
       </c>
       <c r="D3" t="n">
-        <v>26.84261700647052</v>
+        <v>31.19025130795518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03898444972300906</v>
+        <v>0.03965533965032547</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2861300207336625</v>
+        <v>0.282886476135871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1406649616368287</v>
+        <v>0.08791581805838425</v>
       </c>
       <c r="D4" t="n">
-        <v>7.339593678163048</v>
+        <v>7.133628878993832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01382274594465853</v>
+        <v>0.01396440774260146</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2144249938090811</v>
+        <v>0.2163381089183672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1530264279624893</v>
+        <v>0.09945689069925323</v>
       </c>
       <c r="D5" t="n">
-        <v>15.51247448716516</v>
+        <v>15.4921077145564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01338758309636758</v>
+        <v>0.01412848146043257</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2129381425024481</v>
+        <v>0.2146291905031071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1355498721227621</v>
+        <v>0.1008146639511202</v>
       </c>
       <c r="D6" t="n">
-        <v>15.90564487776916</v>
+        <v>15.19124267559719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03152851189720933</v>
+        <v>0.03227512757892322</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2479899037777151</v>
+        <v>0.2471699078313292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1278772378516624</v>
+        <v>0.09097080787508487</v>
       </c>
       <c r="D7" t="n">
-        <v>7.865575913833895</v>
+        <v>7.658216291381596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0110150892179396</v>
+        <v>0.01090073303133417</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2170539544868739</v>
+        <v>0.2157897444151384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.09164969450101833</v>
       </c>
       <c r="D8" t="n">
-        <v>19.70514720238229</v>
+        <v>19.79589297296343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01531350081076796</v>
+        <v>0.01503438287378014</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2552450009611829</v>
+        <v>0.2544268573314943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.09843856076035302</v>
       </c>
       <c r="D9" t="n">
-        <v>16.66797188411045</v>
+        <v>16.92299973118371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02838490975577138</v>
+        <v>0.02804606143146813</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2136696922080952</v>
+        <v>0.2154636007252338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1513213981244672</v>
+        <v>0.09742023082145282</v>
       </c>
       <c r="D10" t="n">
-        <v>7.527580466048538</v>
+        <v>7.682490507686051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02406769162104405</v>
+        <v>0.02448016533398059</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2319513294703706</v>
+        <v>0.2305164305181662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1321398124467178</v>
+        <v>0.08418194161575017</v>
       </c>
       <c r="D11" t="n">
-        <v>9.637456434233165</v>
+        <v>9.41645725726327</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k2.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k2.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02468298655249902</v>
+        <v>0.02468298655249909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250951565187429</v>
+        <v>0.2509515651874291</v>
       </c>
       <c r="C2" t="n">
         <v>0.08893414799728445</v>
       </c>
       <c r="D2" t="n">
-        <v>10.16698545184847</v>
+        <v>10.16698545184845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006811768922209198</v>
+        <v>0.00681176892220918</v>
       </c>
       <c r="B3" t="n">
         <v>0.2124607845354239</v>
@@ -480,12 +480,12 @@
         <v>0.1171079429735234</v>
       </c>
       <c r="D3" t="n">
-        <v>31.19025130795518</v>
+        <v>31.19025130795526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03965533965032547</v>
+        <v>0.03965533965032549</v>
       </c>
       <c r="B4" t="n">
         <v>0.282886476135871</v>
@@ -494,12 +494,12 @@
         <v>0.08791581805838425</v>
       </c>
       <c r="D4" t="n">
-        <v>7.133628878993832</v>
+        <v>7.133628878993831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01396440774260146</v>
+        <v>0.01396440774260155</v>
       </c>
       <c r="B5" t="n">
         <v>0.2163381089183672</v>
@@ -508,12 +508,12 @@
         <v>0.09945689069925323</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4921077145564</v>
+        <v>15.4921077145563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01412848146043257</v>
+        <v>0.01412848146043254</v>
       </c>
       <c r="B6" t="n">
         <v>0.2146291905031071</v>
@@ -522,12 +522,12 @@
         <v>0.1008146639511202</v>
       </c>
       <c r="D6" t="n">
-        <v>15.19124267559719</v>
+        <v>15.19124267559723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03227512757892322</v>
+        <v>0.03227512757892358</v>
       </c>
       <c r="B7" t="n">
         <v>0.2471699078313292</v>
@@ -536,12 +536,12 @@
         <v>0.09097080787508487</v>
       </c>
       <c r="D7" t="n">
-        <v>7.658216291381596</v>
+        <v>7.658216291381509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01090073303133417</v>
+        <v>0.01090073303133419</v>
       </c>
       <c r="B8" t="n">
         <v>0.2157897444151384</v>
@@ -550,12 +550,12 @@
         <v>0.09164969450101833</v>
       </c>
       <c r="D8" t="n">
-        <v>19.79589297296343</v>
+        <v>19.79589297296339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01503438287378014</v>
+        <v>0.01503438287378023</v>
       </c>
       <c r="B9" t="n">
         <v>0.2544268573314943</v>
@@ -564,12 +564,12 @@
         <v>0.09843856076035302</v>
       </c>
       <c r="D9" t="n">
-        <v>16.92299973118371</v>
+        <v>16.92299973118362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02804606143146813</v>
+        <v>0.02804606143146832</v>
       </c>
       <c r="B10" t="n">
         <v>0.2154636007252338</v>
@@ -578,21 +578,21 @@
         <v>0.09742023082145282</v>
       </c>
       <c r="D10" t="n">
-        <v>7.682490507686051</v>
+        <v>7.682490507686001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02448016533398059</v>
+        <v>0.02448016533398074</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2305164305181662</v>
+        <v>0.2305164305181663</v>
       </c>
       <c r="C11" t="n">
         <v>0.08418194161575017</v>
       </c>
       <c r="D11" t="n">
-        <v>9.41645725726327</v>
+        <v>9.416457257263215</v>
       </c>
     </row>
   </sheetData>
